--- a/Excel/ManagingMoney.xlsx
+++ b/Excel/ManagingMoney.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A95D1D1-EF6A-48C4-A0D0-0015909C3328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA556F53-9004-44AF-B1C6-3EE0A6A7A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,17 +42,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Level0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Level1</t>
-  </si>
-  <si>
-    <t>Level2</t>
-  </si>
-  <si>
-    <t>Level3</t>
+    <t>Level1→2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level2→3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level4→5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level3→4</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -95,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,17 +396,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/Excel/ManagingMoney.xlsx
+++ b/Excel/ManagingMoney.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA556F53-9004-44AF-B1C6-3EE0A6A7A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7E2F48-3D98-4867-90FF-0EA0FBD06C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Enhancement Contents</t>
-  </si>
-  <si>
-    <t>PlayerBackpack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PlayerStatus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>StartGear</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Level1→2</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +41,21 @@
   <si>
     <t>Level3→4</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から</t>
+  </si>
+  <si>
+    <t>バックパック</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>ギア</t>
+  </si>
+  <si>
+    <t>の強化費用</t>
   </si>
 </sst>
 </file>
@@ -98,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -381,82 +384,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
         <v>300</v>
       </c>
-      <c r="E2">
-        <v>400</v>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>300</v>
       </c>
-      <c r="D3">
+      <c r="B4">
         <v>450</v>
       </c>
-      <c r="E3">
+      <c r="C4">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>450</v>
-      </c>
       <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4">
         <v>750</v>
       </c>
     </row>

--- a/Excel/ManagingMoney.xlsx
+++ b/Excel/ManagingMoney.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7E2F48-3D98-4867-90FF-0EA0FBD06C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBBED2E-389C-4F98-B00B-7E21163C5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -433,44 +433,44 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>600</v>
       </c>
       <c r="D4">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
